--- a/Data/Processed/Angiosperms/missing_powo_ipni/Passifloraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Passifloraceae.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -15887,7 +15887,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -17295,7 +17295,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -18923,7 +18923,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -19264,7 +19264,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -19693,7 +19693,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -19869,7 +19869,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -20210,7 +20210,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -20386,7 +20386,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -20815,7 +20815,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -21046,7 +21046,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -21134,7 +21134,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -21222,7 +21222,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -21541,7 +21541,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -21805,7 +21805,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -21893,7 +21893,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -22036,7 +22036,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -22124,7 +22124,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -22388,7 +22388,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -22817,7 +22817,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -22905,7 +22905,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -23158,7 +23158,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -24060,7 +24060,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -24324,7 +24324,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -24819,7 +24819,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -25138,7 +25138,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -25567,7 +25567,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -25853,7 +25853,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -26579,7 +26579,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -27019,7 +27019,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -27195,7 +27195,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -27338,7 +27338,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -27426,7 +27426,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -27569,7 +27569,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -27833,7 +27833,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -28207,7 +28207,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -28295,7 +28295,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -28438,7 +28438,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -28581,7 +28581,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -29263,7 +29263,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -29615,7 +29615,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -30143,7 +30143,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -30231,7 +30231,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -30462,7 +30462,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -30550,7 +30550,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -30638,7 +30638,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -30726,7 +30726,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -30814,7 +30814,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -30902,7 +30902,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -31078,7 +31078,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -31496,7 +31496,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -31584,7 +31584,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -31672,7 +31672,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -31760,7 +31760,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -31848,7 +31848,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -31936,7 +31936,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -32024,7 +32024,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -32112,7 +32112,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -32200,7 +32200,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -32618,7 +32618,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -32696,7 +32696,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -32706,7 +32706,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Mattogross. 25, pl. 9. 1898 </t>
+          <t>Pl. Mattogross. 25, pl. 9. 1898</t>
         </is>
       </c>
       <c r="J481" t="b">
@@ -32774,7 +32774,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Mattogross. 27, pl. 10. 1898 </t>
+          <t>Pl. Mattogross. 27, pl. 10. 1898</t>
         </is>
       </c>
       <c r="J482" t="b">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -32862,7 +32862,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 9: t. 72. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 9: t. 72. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J483" t="b">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -32940,7 +32940,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 29, pl. 13b. 1891 </t>
+          <t>Vellosia ed. 2, 1: 29, pl. 13b. 1891</t>
         </is>
       </c>
       <c r="J484" t="b">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -33018,7 +33018,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Fl. Pomone 1837–38: 251 (1838). </t>
+          <t>Ann. Fl. Pomone 1837–38: 251 (1838).</t>
         </is>
       </c>
       <c r="J485" t="b">
@@ -33086,7 +33086,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
